--- a/results/mp/logistic/corona/confidence/84/desired-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/desired-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="105">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,99 +43,96 @@
     <t>war</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>died</t>
+    <t>problem</t>
   </si>
   <si>
     <t>falling</t>
   </si>
   <si>
-    <t>warning</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>shame</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>recession</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>anxiety</t>
+    <t>sick</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>sick</t>
-  </si>
-  <si>
     <t>selfish</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>shame</t>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>cut</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>empty</t>
+    <t>stop</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>fight</t>
   </si>
   <si>
@@ -145,10 +142,13 @@
     <t>oil</t>
   </si>
   <si>
+    <t>of</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>of</t>
+    <t>a</t>
   </si>
   <si>
     <t>to</t>
@@ -181,25 +181,31 @@
     <t>special</t>
   </si>
   <si>
-    <t>strong</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>won</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>thanks</t>
@@ -211,99 +217,78 @@
     <t>confidence</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>help</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>team</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>ready</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>giving</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
     <t>data</t>
   </si>
   <si>
@@ -316,19 +301,31 @@
     <t>keep</t>
   </si>
   <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>shopping</t>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>your</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
     <t>and</t>
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
   <si>
     <t>corona</t>
@@ -689,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -700,7 +697,7 @@
         <v>48</v>
       </c>
       <c r="J1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -758,13 +755,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9736842105263158</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -776,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>49</v>
@@ -808,13 +805,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9411764705882353</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -826,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>50</v>
@@ -858,13 +855,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.918918918918919</v>
+        <v>0.88</v>
       </c>
       <c r="C5">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -882,13 +879,13 @@
         <v>51</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.95</v>
       </c>
       <c r="L5">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M5">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -900,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -908,13 +905,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8888888888888888</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -926,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>52</v>
@@ -958,13 +955,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8695652173913043</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -976,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>53</v>
@@ -1008,13 +1005,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8458904109589042</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C8">
-        <v>247</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>247</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1026,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>54</v>
@@ -1058,13 +1055,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8333333333333334</v>
+        <v>0.8356164383561644</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>244</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>244</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1076,19 +1073,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K9">
-        <v>0.9090909090909091</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L9">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="M9">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1100,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1132,13 +1129,13 @@
         <v>56</v>
       </c>
       <c r="K10">
-        <v>0.8981723237597912</v>
+        <v>0.8828125</v>
       </c>
       <c r="L10">
-        <v>344</v>
+        <v>113</v>
       </c>
       <c r="M10">
-        <v>344</v>
+        <v>113</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1150,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1182,13 +1179,13 @@
         <v>57</v>
       </c>
       <c r="K11">
-        <v>0.8928571428571429</v>
+        <v>0.8825065274151436</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>338</v>
       </c>
       <c r="M11">
-        <v>100</v>
+        <v>338</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1200,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1211,10 +1208,10 @@
         <v>0.8</v>
       </c>
       <c r="C12">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1226,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K12">
-        <v>0.8873239436619719</v>
+        <v>0.8802816901408451</v>
       </c>
       <c r="L12">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M12">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1250,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1258,13 +1255,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1276,19 +1273,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K13">
-        <v>0.8867924528301887</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="L13">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M13">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1300,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1308,13 +1305,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7450980392156863</v>
+        <v>0.725</v>
       </c>
       <c r="C14">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1326,19 +1323,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K14">
-        <v>0.86875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L14">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="M14">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1350,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1358,13 +1355,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7435897435897436</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C15">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1376,19 +1373,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K15">
-        <v>0.859375</v>
+        <v>0.85</v>
       </c>
       <c r="L15">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="M15">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1400,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1408,13 +1405,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7333333333333333</v>
+        <v>0.6841085271317829</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>353</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>353</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1426,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K16">
-        <v>0.8536585365853658</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L16">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="M16">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1450,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1458,13 +1455,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7142857142857143</v>
+        <v>0.6772486772486772</v>
       </c>
       <c r="C17">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D17">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1476,19 +1473,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K17">
-        <v>0.8372093023255814</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1500,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1508,13 +1505,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.686046511627907</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C18">
-        <v>354</v>
+        <v>26</v>
       </c>
       <c r="D18">
-        <v>354</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1526,19 +1523,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K18">
-        <v>0.8333333333333334</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="M18">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1550,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1558,13 +1555,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6779661016949152</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="C19">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1576,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K19">
-        <v>0.8333333333333334</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="L19">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M19">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1600,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1608,13 +1605,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6774193548387096</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1626,19 +1623,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K20">
-        <v>0.8275862068965517</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L20">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1650,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1658,13 +1655,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6410256410256411</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1676,19 +1673,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K21">
-        <v>0.8253968253968254</v>
+        <v>0.8</v>
       </c>
       <c r="L21">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1700,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1708,13 +1705,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6129032258064516</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="C22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1726,19 +1723,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K22">
-        <v>0.825</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L22">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M22">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1750,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1758,13 +1755,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6107382550335571</v>
+        <v>0.625</v>
       </c>
       <c r="C23">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1776,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K23">
-        <v>0.8214285714285714</v>
+        <v>0.76</v>
       </c>
       <c r="L23">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1800,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1808,13 +1805,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.59375</v>
+        <v>0.6241610738255033</v>
       </c>
       <c r="C24">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="D24">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1826,19 +1823,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K24">
-        <v>0.8085106382978723</v>
+        <v>0.7588235294117647</v>
       </c>
       <c r="L24">
-        <v>38</v>
+        <v>258</v>
       </c>
       <c r="M24">
-        <v>38</v>
+        <v>258</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1850,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1858,13 +1855,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5555555555555556</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1876,19 +1873,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>71</v>
       </c>
       <c r="K25">
-        <v>0.7948717948717948</v>
+        <v>0.75</v>
       </c>
       <c r="L25">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M25">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1900,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1908,13 +1905,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5527777777777778</v>
+        <v>0.5944444444444444</v>
       </c>
       <c r="C26">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="D26">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1926,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>72</v>
@@ -1935,10 +1932,10 @@
         <v>0.75</v>
       </c>
       <c r="L26">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M26">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1950,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1958,13 +1955,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5405405405405406</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1976,19 +1973,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K27">
-        <v>0.75</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L27">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="M27">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2000,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2008,13 +2005,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5272727272727272</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C28">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D28">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2026,19 +2023,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K28">
-        <v>0.7470588235294118</v>
+        <v>0.7448979591836735</v>
       </c>
       <c r="L28">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="M28">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2047,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2058,7 +2055,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.509090909090909</v>
+        <v>0.5</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -2076,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>75</v>
@@ -2108,13 +2105,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4933333333333333</v>
+        <v>0.48</v>
       </c>
       <c r="C30">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2126,19 +2123,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K30">
-        <v>0.74</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="L30">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="M30">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2150,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2158,13 +2155,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4821428571428572</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="C31">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D31">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2176,19 +2173,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>77</v>
       </c>
       <c r="K31">
-        <v>0.7210884353741497</v>
+        <v>0.7303370786516854</v>
       </c>
       <c r="L31">
-        <v>212</v>
+        <v>65</v>
       </c>
       <c r="M31">
-        <v>213</v>
+        <v>65</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2197,10 +2194,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>82</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2208,13 +2205,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4333333333333333</v>
+        <v>0.3452380952380952</v>
       </c>
       <c r="C32">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="D32">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2226,19 +2223,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>78</v>
       </c>
       <c r="K32">
-        <v>0.7142857142857143</v>
+        <v>0.7127659574468085</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2250,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2258,13 +2255,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4155844155844156</v>
+        <v>0.3376623376623377</v>
       </c>
       <c r="C33">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D33">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2276,19 +2273,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>79</v>
       </c>
       <c r="K33">
-        <v>0.7142857142857143</v>
+        <v>0.702928870292887</v>
       </c>
       <c r="L33">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="M33">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2300,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2308,13 +2305,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3412698412698413</v>
+        <v>0.275</v>
       </c>
       <c r="C34">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="D34">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2326,19 +2323,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>166</v>
+        <v>58</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>80</v>
       </c>
       <c r="K34">
-        <v>0.7111111111111111</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L34">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M34">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2350,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2358,13 +2355,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2875</v>
+        <v>0.2305630026809651</v>
       </c>
       <c r="C35">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="D35">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2376,19 +2373,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>57</v>
+        <v>287</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>81</v>
       </c>
       <c r="K35">
-        <v>0.7037037037037037</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="M35">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2400,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2408,13 +2405,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2278820375335121</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="C36">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="D36">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2426,19 +2423,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>82</v>
       </c>
       <c r="K36">
-        <v>0.7021276595744681</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L36">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="M36">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2450,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2458,37 +2455,37 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.08</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C37">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="D37">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>276</v>
+        <v>2310</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>83</v>
       </c>
       <c r="K37">
-        <v>0.6861924686192469</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="L37">
-        <v>164</v>
+        <v>29</v>
       </c>
       <c r="M37">
-        <v>164</v>
+        <v>29</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2500,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2508,37 +2505,37 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0109642050951306</v>
+        <v>0.01582176299644818</v>
       </c>
       <c r="C38">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D38">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="E38">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="F38">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>3067</v>
+        <v>3048</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>84</v>
       </c>
       <c r="K38">
-        <v>0.6615384615384615</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L38">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M38">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2550,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2558,37 +2555,37 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01054407423028258</v>
+        <v>0.00914235959947758</v>
       </c>
       <c r="C39">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D39">
         <v>33</v>
       </c>
       <c r="E39">
-        <v>0.24</v>
+        <v>0.36</v>
       </c>
       <c r="F39">
-        <v>0.76</v>
+        <v>0.64</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>2346</v>
+        <v>2276</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>85</v>
       </c>
       <c r="K39">
-        <v>0.6571428571428571</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L39">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="M39">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2600,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2608,37 +2605,37 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.006035283194057568</v>
+        <v>0.006991377301328362</v>
       </c>
       <c r="C40">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D40">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E40">
-        <v>0.43</v>
+        <v>0.55</v>
       </c>
       <c r="F40">
-        <v>0.5700000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>4282</v>
+        <v>4261</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>86</v>
       </c>
       <c r="K40">
-        <v>0.6470588235294118</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L40">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="M40">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2650,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2658,13 +2655,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004665629860031105</v>
+        <v>0.006621226874391432</v>
       </c>
       <c r="C41">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D41">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="E41">
         <v>0.47</v>
@@ -2676,19 +2673,19 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>5120</v>
+        <v>5101</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>87</v>
       </c>
       <c r="K41">
-        <v>0.6404494382022472</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L41">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="M41">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2700,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2708,37 +2705,37 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004423889000603257</v>
+        <v>0.005838534326555265</v>
       </c>
       <c r="C42">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D42">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E42">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F42">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>4951</v>
+        <v>4938</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>88</v>
       </c>
       <c r="K42">
-        <v>0.6363636363636364</v>
+        <v>0.484375</v>
       </c>
       <c r="L42">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M42">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2750,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2758,13 +2755,13 @@
         <v>89</v>
       </c>
       <c r="K43">
-        <v>0.6129032258064516</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L43">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M43">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2776,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2784,25 +2781,25 @@
         <v>90</v>
       </c>
       <c r="K44">
-        <v>0.5714285714285714</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L44">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M44">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2810,13 +2807,13 @@
         <v>91</v>
       </c>
       <c r="K45">
-        <v>0.547945205479452</v>
+        <v>0.3859649122807017</v>
       </c>
       <c r="L45">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="M45">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2828,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2836,13 +2833,13 @@
         <v>92</v>
       </c>
       <c r="K46">
-        <v>0.4915254237288136</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="L46">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M46">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2854,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2862,13 +2859,13 @@
         <v>93</v>
       </c>
       <c r="K47">
-        <v>0.484375</v>
+        <v>0.2293577981651376</v>
       </c>
       <c r="L47">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M47">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2880,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>33</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2888,13 +2885,13 @@
         <v>94</v>
       </c>
       <c r="K48">
-        <v>0.4487179487179487</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="L48">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="M48">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2906,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>43</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2914,13 +2911,13 @@
         <v>95</v>
       </c>
       <c r="K49">
-        <v>0.4098360655737705</v>
+        <v>0.05730659025787966</v>
       </c>
       <c r="L49">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M49">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2932,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>36</v>
+        <v>329</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2940,13 +2937,13 @@
         <v>96</v>
       </c>
       <c r="K50">
-        <v>0.3508771929824561</v>
+        <v>0.056672760511883</v>
       </c>
       <c r="L50">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M50">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2958,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>37</v>
+        <v>516</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2966,25 +2963,25 @@
         <v>97</v>
       </c>
       <c r="K51">
-        <v>0.2638888888888889</v>
+        <v>0.05183946488294314</v>
       </c>
       <c r="L51">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="M51">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>53</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2992,25 +2989,25 @@
         <v>98</v>
       </c>
       <c r="K52">
-        <v>0.2110091743119266</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="L52">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M52">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>86</v>
+        <v>960</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -3018,25 +3015,25 @@
         <v>99</v>
       </c>
       <c r="K53">
-        <v>0.1612903225806452</v>
+        <v>0.01567398119122257</v>
       </c>
       <c r="L53">
         <v>20</v>
       </c>
       <c r="M53">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.61</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>104</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -3044,25 +3041,25 @@
         <v>100</v>
       </c>
       <c r="K54">
-        <v>0.06493506493506493</v>
+        <v>0.0146671681083114</v>
       </c>
       <c r="L54">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M54">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>288</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -3070,25 +3067,25 @@
         <v>101</v>
       </c>
       <c r="K55">
-        <v>0.04807692307692308</v>
+        <v>0.01213389121338912</v>
       </c>
       <c r="L55">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M55">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>396</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -3096,25 +3093,25 @@
         <v>102</v>
       </c>
       <c r="K56">
-        <v>0.02005012531328321</v>
+        <v>0.01197227473219912</v>
       </c>
       <c r="L56">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M56">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N56">
-        <v>0.89</v>
+        <v>0.73</v>
       </c>
       <c r="O56">
-        <v>0.11</v>
+        <v>0.27</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>1173</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -3122,25 +3119,25 @@
         <v>103</v>
       </c>
       <c r="K57">
-        <v>0.009009009009009009</v>
+        <v>0.01028383381324558</v>
       </c>
       <c r="L57">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M57">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N57">
-        <v>0.73</v>
+        <v>0.64</v>
       </c>
       <c r="O57">
-        <v>0.27</v>
+        <v>0.36</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>2640</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -3148,77 +3145,77 @@
         <v>104</v>
       </c>
       <c r="K58">
-        <v>0.008782936010037641</v>
+        <v>0.008785691873235017</v>
       </c>
       <c r="L58">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M58">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="N58">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="O58">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>2370</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="K59">
-        <v>0.008147916013788781</v>
+        <v>0.008608655188459749</v>
       </c>
       <c r="L59">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M59">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="N59">
-        <v>0.72</v>
+        <v>0.55</v>
       </c>
       <c r="O59">
-        <v>0.28</v>
+        <v>0.45</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>3165</v>
+        <v>4261</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K60">
-        <v>0.004649000464900047</v>
+        <v>0.005846813486649776</v>
       </c>
       <c r="L60">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M60">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="N60">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="O60">
-        <v>0.5700000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>4282</v>
+        <v>5101</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -3226,51 +3223,25 @@
         <v>47</v>
       </c>
       <c r="K61">
-        <v>0.004624045034177724</v>
+        <v>0.005838534326555265</v>
       </c>
       <c r="L61">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M61">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="N61">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="O61">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>4951</v>
-      </c>
-    </row>
-    <row r="62" spans="10:17">
-      <c r="J62" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K62">
-        <v>0.004084808403034429</v>
-      </c>
-      <c r="L62">
-        <v>21</v>
-      </c>
-      <c r="M62">
-        <v>45</v>
-      </c>
-      <c r="N62">
-        <v>0.47</v>
-      </c>
-      <c r="O62">
-        <v>0.53</v>
-      </c>
-      <c r="P62" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q62">
-        <v>5120</v>
+        <v>4938</v>
       </c>
     </row>
   </sheetData>
